--- a/data/0. old data/0. raw/2016/companies/otsuka.xlsx
+++ b/data/0. old data/0. raw/2016/companies/otsuka.xlsx
@@ -10,7 +10,7 @@
     <sheet name="otsuka" sheetId="1" r:id="rId1"/>
     <sheet name="Aggregated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="186">
   <si>
     <t>name</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>hco</t>
+  </si>
+  <si>
+    <t>Luzerner Kantonsspital, Spitalstrasse</t>
   </si>
 </sst>
 </file>
@@ -1404,9 +1407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2834,7 +2837,7 @@
         <v>82</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
